--- a/documents/Published/Linear Gauge/LinearGaugeByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/Linear Gauge/LinearGaugeByMAQSoftwareChecklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\v-saviss\source\repos\PowerBI-visuals2\documents\Published\Linear Gauge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git1\documents\Published\Linear Gauge\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8C68B6-B80A-47A2-8397-DE87233992A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0358673F-1F3B-4799-A1D1-39E0D0C70706}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0699E701-317F-4C2D-BB4C-A0FCB3058AE2}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="144">
   <si>
     <t>S no</t>
   </si>
@@ -539,6 +539,19 @@
   </si>
   <si>
     <t>The color should be displayed based on the selection.</t>
+  </si>
+  <si>
+    <t>Displaying of the visual</t>
+  </si>
+  <si>
+    <t>1) Drag null values column in to measure field 
+2) Drag any column into category field</t>
+  </si>
+  <si>
+    <t>The visual should be displayed with the categories present</t>
+  </si>
+  <si>
+    <t>Linear Gauge Chart</t>
   </si>
 </sst>
 </file>
@@ -631,6 +644,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -639,10 +656,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,10 +971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D00286-5FAE-4E81-8436-5E389963610F}">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1094,10 +1107,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="A8" s="13">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>82</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -1111,8 +1124,8 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="8" t="s">
         <v>91</v>
       </c>
@@ -1124,10 +1137,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A10" s="13">
         <v>8</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="14" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -1141,8 +1154,8 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="8" t="s">
         <v>93</v>
       </c>
@@ -1171,10 +1184,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="A13" s="13">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="12" t="s">
         <v>61</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -1188,8 +1201,8 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="8" t="s">
         <v>66</v>
       </c>
@@ -1235,10 +1248,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="13">
         <v>13</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>76</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -1252,8 +1265,8 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="92.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
-      <c r="B18" s="10"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="12"/>
       <c r="C18" s="8" t="s">
         <v>80</v>
       </c>
@@ -1265,8 +1278,8 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="8" t="s">
         <v>113</v>
       </c>
@@ -1434,17 +1447,34 @@
       <c r="A29" s="6">
         <v>22</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="14" t="s">
+      <c r="C29" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="11" t="s">
         <v>139</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="10">
+        <v>23</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
